--- a/index-step4.xlsx
+++ b/index-step4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DICP\EIEIO-Annotation-Tool-20250221修step6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F51FF-A3CB-4B2A-85AB-F2A0B3C8A8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA331F6-4FA7-4B51-B246-D84189073659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="0" windowWidth="9700" windowHeight="10200" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="204">
   <si>
     <t>sn-1 diagnostic ions</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -691,9 +691,6 @@
   </si>
   <si>
     <t>3:0</t>
-  </si>
-  <si>
-    <t>2:0</t>
   </si>
   <si>
     <t>sn-2-chains</t>
@@ -1101,7 +1098,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2565,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3502F1F1-1708-4182-AC67-981C5DFCDB81}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -3909,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789CD7C6-B468-4633-8BBB-26DCFC4895ED}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -3932,31 +3929,31 @@
         <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>166</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>190</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -6039,10 +6036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838A387C-787B-44B6-9FA4-51953D23024E}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7395,26 +7392,6 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="10">
-        <v>286.13730000000021</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C68" s="10">
-        <v>269.10010000000011</v>
-      </c>
-      <c r="D68" s="10">
-        <v>283.12010000000015</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7423,10 +7400,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3033BB-3DDF-4EBE-A467-7CD743AFDEF4}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8779,26 +8756,6 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C68" s="12">
-        <v>284.12</v>
-      </c>
-      <c r="D68" s="12">
-        <v>281.10000000000002</v>
-      </c>
-      <c r="E68" s="12">
-        <v>267.08</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8809,8 +8766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4AFC17-7523-49B4-9F60-927ACD7D3D48}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -12441,7 +12398,7 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -14099,7 +14056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16128,10 +16087,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F394EC7-7D29-48EB-A8C3-D2E1B4696A31}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C91" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17348,16 +17307,6 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="1">
-        <v>129.08000000000001</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
